--- a/validation/results/M2000663/M2000663.xlsx
+++ b/validation/results/M2000663/M2000663.xlsx
@@ -4436,7 +4436,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
